--- a/backend/export-excel/CCS_Olympics_2024_responses.xlsx
+++ b/backend/export-excel/CCS_Olympics_2024_responses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
   <si>
     <t>Respondent</t>
   </si>
@@ -963,6 +963,21 @@
   </si>
   <si>
     <t>jamescampbell@gmail.com</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Chrisna</t>
+  </si>
+  <si>
+    <t>Fucio</t>
+  </si>
+  <si>
+    <t>chrisnafucio123@gmail.com</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1332,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:N129"/>
+      <selection activeCell="A2" sqref="A2:N130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6993,6 +7008,48 @@
         <v>22</v>
       </c>
     </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="2">
+        <v>4</v>
+      </c>
+      <c r="I130" s="2">
+        <v>4</v>
+      </c>
+      <c r="J130" s="2">
+        <v>4</v>
+      </c>
+      <c r="K130" s="2">
+        <v>4</v>
+      </c>
+      <c r="L130" s="2">
+        <v>4</v>
+      </c>
+      <c r="M130" s="2">
+        <v>4</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
